--- a/stats/harvard/disease_type=common-diseases failure-type-ignored=any-error for app=Avey.xlsx
+++ b/stats/harvard/disease_type=common-diseases failure-type-ignored=any-error for app=Avey.xlsx
@@ -766,124 +766,124 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.225</v>
+        <v>0.312</v>
       </c>
       <c r="C4" t="n">
-        <v>0.021</v>
+        <v>0.058</v>
       </c>
       <c r="D4" t="n">
-        <v>0.145</v>
+        <v>0.24</v>
       </c>
       <c r="E4" t="n">
-        <v>0.281</v>
+        <v>0.177</v>
       </c>
       <c r="F4" t="n">
-        <v>0.029</v>
+        <v>0.011</v>
       </c>
       <c r="G4" t="n">
-        <v>0.169</v>
+        <v>0.104</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2</v>
+        <v>0.194</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="K4" t="n">
-        <v>0.375</v>
+        <v>0.392</v>
       </c>
       <c r="L4" t="n">
-        <v>0.089</v>
+        <v>0.103</v>
       </c>
       <c r="M4" t="n">
-        <v>0.298</v>
+        <v>0.321</v>
       </c>
       <c r="N4" t="n">
-        <v>0.469</v>
+        <v>0.274</v>
       </c>
       <c r="O4" t="n">
-        <v>0.068</v>
+        <v>0.022</v>
       </c>
       <c r="P4" t="n">
-        <v>0.26</v>
+        <v>0.148</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.625</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="R4" t="n">
-        <v>0.234</v>
+        <v>0.222</v>
       </c>
       <c r="S4" t="n">
-        <v>0.484</v>
+        <v>0.471</v>
       </c>
       <c r="T4" t="n">
-        <v>0.219</v>
+        <v>0.288</v>
       </c>
       <c r="U4" t="n">
-        <v>0.116</v>
+        <v>0.096</v>
       </c>
       <c r="V4" t="n">
-        <v>0.341</v>
+        <v>0.31</v>
       </c>
       <c r="W4" t="n">
-        <v>0.297</v>
+        <v>0.235</v>
       </c>
       <c r="X4" t="n">
-        <v>0.005</v>
+        <v>0.049</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.222</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.525</v>
+        <v>0.46</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.174</v>
+        <v>0.143</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.417</v>
+        <v>0.378</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.171</v>
+        <v>0.128</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.028</v>
+        <v>0.006</v>
       </c>
       <c r="AE4" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2.063</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>0.168</v>
       </c>
-      <c r="AF4" t="n">
-        <v>2.213</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.118</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.188</v>
-      </c>
       <c r="AK4" t="n">
-        <v>0.433</v>
+        <v>0.409</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.668</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.103</v>
+        <v>0.123</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.321</v>
+        <v>0.35</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.738</v>
+        <v>0.6879999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -893,124 +893,124 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.875</v>
+        <v>0.806</v>
       </c>
       <c r="C5" t="n">
-        <v>0.359</v>
+        <v>0.156</v>
       </c>
       <c r="D5" t="n">
-        <v>0.599</v>
+        <v>0.395</v>
       </c>
       <c r="E5" t="n">
-        <v>1.375</v>
+        <v>0.774</v>
       </c>
       <c r="F5" t="n">
-        <v>0.734</v>
+        <v>0.175</v>
       </c>
       <c r="G5" t="n">
-        <v>0.857</v>
+        <v>0.418</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.839</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.135</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.368</v>
       </c>
       <c r="K5" t="n">
-        <v>0.75</v>
+        <v>0.742</v>
       </c>
       <c r="L5" t="n">
-        <v>0.188</v>
+        <v>0.191</v>
       </c>
       <c r="M5" t="n">
-        <v>0.433</v>
+        <v>0.438</v>
       </c>
       <c r="N5" t="n">
-        <v>1.5</v>
+        <v>0.839</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5</v>
+        <v>0.135</v>
       </c>
       <c r="P5" t="n">
-        <v>0.707</v>
+        <v>0.368</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.625</v>
+        <v>0.613</v>
       </c>
       <c r="R5" t="n">
-        <v>0.234</v>
+        <v>0.237</v>
       </c>
       <c r="S5" t="n">
-        <v>0.484</v>
+        <v>0.487</v>
       </c>
       <c r="T5" t="n">
-        <v>0.375</v>
+        <v>0.581</v>
       </c>
       <c r="U5" t="n">
-        <v>0.234</v>
+        <v>0.243</v>
       </c>
       <c r="V5" t="n">
-        <v>0.484</v>
+        <v>0.493</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.206</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>0.454</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.875</v>
+        <v>0.806</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.359</v>
+        <v>0.156</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.599</v>
+        <v>0.395</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.125</v>
+        <v>0.774</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.609</v>
+        <v>0.175</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.781</v>
+        <v>0.418</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.75</v>
+        <v>2.645</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.25</v>
+        <v>0.031</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.5</v>
+        <v>0.177</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.75</v>
+        <v>0.774</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.188</v>
+        <v>0.175</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.433</v>
+        <v>0.418</v>
       </c>
       <c r="AL5" t="n">
-        <v>1</v>
+        <v>0.903</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>0.296</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.917</v>
+        <v>0.882</v>
       </c>
     </row>
     <row r="6">
@@ -1020,72 +1020,72 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.358</v>
+        <v>0.45</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0.467</v>
+        <v>0.288</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.333</v>
+        <v>0.315</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>0.5</v>
+        <v>0.513</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>0.715</v>
+        <v>0.413</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>0.625</v>
+        <v>0.588</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>0.277</v>
+        <v>0.385</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>0.458</v>
+        <v>0.353</v>
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>0.656</v>
+        <v>0.586</v>
       </c>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>0.297</v>
+        <v>0.22</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>2.439</v>
+        <v>2.316</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="n">
-        <v>0.75</v>
+        <v>0.713</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.768</v>
       </c>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="7">
@@ -1095,72 +1095,72 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.555</v>
+        <v>0.612</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0.773</v>
+        <v>0.462</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0.556</v>
+        <v>0.504</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>0.625</v>
+        <v>0.63</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>1.042</v>
+        <v>0.594</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>0.625</v>
+        <v>0.603</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>0.328</v>
+        <v>0.483</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>0.679</v>
+        <v>0.506</v>
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>0.772</v>
+        <v>0.701</v>
       </c>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
-        <v>0.532</v>
+        <v>0.385</v>
       </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>2.612</v>
+        <v>2.502</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="n">
-        <v>0.75</v>
+        <v>0.748</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
-        <v>0.918</v>
+        <v>0.844</v>
       </c>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="n">
-        <v>0.871</v>
+        <v>0.834</v>
       </c>
     </row>
     <row r="8">
@@ -1170,124 +1170,124 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.804</v>
+        <v>0.778</v>
       </c>
       <c r="C8" t="n">
-        <v>0.235</v>
+        <v>0.157</v>
       </c>
       <c r="D8" t="n">
-        <v>0.484</v>
+        <v>0.396</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.639</v>
       </c>
       <c r="F8" t="n">
-        <v>0.202</v>
+        <v>0.161</v>
       </c>
       <c r="G8" t="n">
-        <v>0.45</v>
+        <v>0.401</v>
       </c>
       <c r="H8" t="n">
-        <v>0.861</v>
+        <v>0.725</v>
       </c>
       <c r="I8" t="n">
-        <v>0.059</v>
+        <v>0.145</v>
       </c>
       <c r="J8" t="n">
-        <v>0.243</v>
+        <v>0.381</v>
       </c>
       <c r="K8" t="n">
-        <v>0.625</v>
+        <v>0.654</v>
       </c>
       <c r="L8" t="n">
-        <v>0.172</v>
+        <v>0.179</v>
       </c>
       <c r="M8" t="n">
-        <v>0.415</v>
+        <v>0.423</v>
       </c>
       <c r="N8" t="n">
-        <v>1.299</v>
+        <v>0.757</v>
       </c>
       <c r="O8" t="n">
-        <v>0.17</v>
+        <v>0.138</v>
       </c>
       <c r="P8" t="n">
-        <v>0.412</v>
+        <v>0.372</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.625</v>
+        <v>0.601</v>
       </c>
       <c r="R8" t="n">
-        <v>0.234</v>
+        <v>0.232</v>
       </c>
       <c r="S8" t="n">
-        <v>0.484</v>
+        <v>0.482</v>
       </c>
       <c r="T8" t="n">
-        <v>0.375</v>
+        <v>0.525</v>
       </c>
       <c r="U8" t="n">
-        <v>0.234</v>
+        <v>0.218</v>
       </c>
       <c r="V8" t="n">
-        <v>0.484</v>
+        <v>0.467</v>
       </c>
       <c r="W8" t="n">
-        <v>0.737</v>
+        <v>0.642</v>
       </c>
       <c r="X8" t="n">
-        <v>0.044</v>
+        <v>0.191</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.21</v>
+        <v>0.437</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.743</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.246</v>
+        <v>0.153</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.496</v>
+        <v>0.391</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.66</v>
+        <v>0.653</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.333</v>
+        <v>0.173</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.577</v>
+        <v>0.416</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.595</v>
+        <v>2.546</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.115</v>
+        <v>0.049</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.34</v>
+        <v>0.221</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.75</v>
+        <v>0.774</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.188</v>
+        <v>0.175</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.433</v>
+        <v>0.418</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.954</v>
+        <v>0.868</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.015</v>
+        <v>0.092</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.122</v>
+        <v>0.304</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.865</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="9">
@@ -1297,16 +1297,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.75</v>
+        <v>0.742</v>
       </c>
       <c r="C9" t="n">
-        <v>0.188</v>
+        <v>0.191</v>
       </c>
       <c r="D9" t="n">
-        <v>0.433</v>
+        <v>0.438</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5</v>
+        <v>0.484</v>
       </c>
       <c r="F9" t="n">
         <v>0.25</v>
@@ -1315,106 +1315,106 @@
         <v>0.5</v>
       </c>
       <c r="H9" t="n">
-        <v>0.75</v>
+        <v>0.613</v>
       </c>
       <c r="I9" t="n">
-        <v>0.188</v>
+        <v>0.237</v>
       </c>
       <c r="J9" t="n">
-        <v>0.433</v>
+        <v>0.487</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5</v>
+        <v>0.548</v>
       </c>
       <c r="L9" t="n">
-        <v>0.25</v>
+        <v>0.248</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5</v>
+        <v>0.498</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0.645</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>0.229</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.478</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.625</v>
+        <v>0.581</v>
       </c>
       <c r="R9" t="n">
-        <v>0.234</v>
+        <v>0.243</v>
       </c>
       <c r="S9" t="n">
-        <v>0.484</v>
+        <v>0.493</v>
       </c>
       <c r="T9" t="n">
-        <v>0.375</v>
+        <v>0.452</v>
       </c>
       <c r="U9" t="n">
-        <v>0.234</v>
+        <v>0.248</v>
       </c>
       <c r="V9" t="n">
-        <v>0.484</v>
+        <v>0.498</v>
       </c>
       <c r="W9" t="n">
-        <v>0.375</v>
+        <v>0.548</v>
       </c>
       <c r="X9" t="n">
-        <v>0.234</v>
+        <v>0.248</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.484</v>
+        <v>0.498</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.75</v>
+        <v>0.645</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.188</v>
+        <v>0.229</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.433</v>
+        <v>0.478</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.25</v>
+        <v>0.548</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.188</v>
+        <v>0.248</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.433</v>
+        <v>0.498</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.375</v>
+        <v>2.386</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.188</v>
+        <v>0.156</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.433</v>
+        <v>0.395</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.75</v>
+        <v>0.774</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.188</v>
+        <v>0.175</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.433</v>
+        <v>0.418</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.875</v>
+        <v>0.806</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.109</v>
+        <v>0.156</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.331</v>
+        <v>0.395</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.792</v>
+        <v>0.795</v>
       </c>
     </row>
     <row r="10">
@@ -1424,124 +1424,124 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.75</v>
+        <v>0.806</v>
       </c>
       <c r="C10" t="n">
-        <v>0.188</v>
+        <v>0.156</v>
       </c>
       <c r="D10" t="n">
-        <v>0.433</v>
+        <v>0.395</v>
       </c>
       <c r="E10" t="n">
-        <v>0.875</v>
+        <v>0.677</v>
       </c>
       <c r="F10" t="n">
-        <v>0.109</v>
+        <v>0.219</v>
       </c>
       <c r="G10" t="n">
-        <v>0.331</v>
+        <v>0.467</v>
       </c>
       <c r="H10" t="n">
-        <v>0.875</v>
+        <v>0.742</v>
       </c>
       <c r="I10" t="n">
-        <v>0.109</v>
+        <v>0.191</v>
       </c>
       <c r="J10" t="n">
-        <v>0.331</v>
+        <v>0.438</v>
       </c>
       <c r="K10" t="n">
-        <v>0.75</v>
+        <v>0.742</v>
       </c>
       <c r="L10" t="n">
-        <v>0.188</v>
+        <v>0.191</v>
       </c>
       <c r="M10" t="n">
-        <v>0.433</v>
+        <v>0.438</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0.806</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.156</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.395</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.625</v>
+        <v>0.613</v>
       </c>
       <c r="R10" t="n">
-        <v>0.234</v>
+        <v>0.237</v>
       </c>
       <c r="S10" t="n">
-        <v>0.484</v>
+        <v>0.487</v>
       </c>
       <c r="T10" t="n">
-        <v>0.375</v>
+        <v>0.581</v>
       </c>
       <c r="U10" t="n">
-        <v>0.234</v>
+        <v>0.243</v>
       </c>
       <c r="V10" t="n">
-        <v>0.484</v>
+        <v>0.493</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>0.206</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>0.454</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.75</v>
+        <v>0.806</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.188</v>
+        <v>0.156</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.433</v>
+        <v>0.395</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.5</v>
+        <v>0.645</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.25</v>
+        <v>0.229</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.5</v>
+        <v>0.478</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.625</v>
+        <v>2.645</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.109</v>
+        <v>0.031</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.331</v>
+        <v>0.177</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.75</v>
+        <v>0.774</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.188</v>
+        <v>0.175</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.433</v>
+        <v>0.418</v>
       </c>
       <c r="AL10" t="n">
-        <v>1</v>
+        <v>0.903</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>0.296</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.875</v>
+        <v>0.882</v>
       </c>
     </row>
     <row r="11">
@@ -1551,124 +1551,124 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.75</v>
+        <v>0.806</v>
       </c>
       <c r="C11" t="n">
-        <v>0.188</v>
+        <v>0.156</v>
       </c>
       <c r="D11" t="n">
-        <v>0.433</v>
+        <v>0.395</v>
       </c>
       <c r="E11" t="n">
-        <v>0.875</v>
+        <v>0.774</v>
       </c>
       <c r="F11" t="n">
-        <v>0.109</v>
+        <v>0.175</v>
       </c>
       <c r="G11" t="n">
-        <v>0.331</v>
+        <v>0.418</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0.839</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.135</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.368</v>
       </c>
       <c r="K11" t="n">
-        <v>0.75</v>
+        <v>0.742</v>
       </c>
       <c r="L11" t="n">
-        <v>0.188</v>
+        <v>0.191</v>
       </c>
       <c r="M11" t="n">
-        <v>0.433</v>
+        <v>0.438</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0.839</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>0.135</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.368</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.625</v>
+        <v>0.613</v>
       </c>
       <c r="R11" t="n">
-        <v>0.234</v>
+        <v>0.237</v>
       </c>
       <c r="S11" t="n">
-        <v>0.484</v>
+        <v>0.487</v>
       </c>
       <c r="T11" t="n">
-        <v>0.375</v>
+        <v>0.581</v>
       </c>
       <c r="U11" t="n">
-        <v>0.234</v>
+        <v>0.243</v>
       </c>
       <c r="V11" t="n">
-        <v>0.484</v>
+        <v>0.493</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.206</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>0.454</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.75</v>
+        <v>0.806</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.188</v>
+        <v>0.156</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.433</v>
+        <v>0.395</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.188</v>
+        <v>0.206</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.433</v>
+        <v>0.454</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.625</v>
+        <v>2.645</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.109</v>
+        <v>0.031</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.331</v>
+        <v>0.177</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.75</v>
+        <v>0.774</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.188</v>
+        <v>0.175</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.433</v>
+        <v>0.418</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>0.903</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>0.296</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.875</v>
+        <v>0.882</v>
       </c>
     </row>
     <row r="12">
@@ -1678,103 +1678,103 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.186</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.431</v>
       </c>
       <c r="E12" t="n">
-        <v>1.571</v>
+        <v>1.708</v>
       </c>
       <c r="F12" t="n">
-        <v>0.531</v>
+        <v>1.123</v>
       </c>
       <c r="G12" t="n">
-        <v>0.728</v>
+        <v>1.06</v>
       </c>
       <c r="H12" t="n">
-        <v>1.75</v>
+        <v>1.654</v>
       </c>
       <c r="I12" t="n">
-        <v>1.938</v>
+        <v>1.534</v>
       </c>
       <c r="J12" t="n">
-        <v>1.392</v>
+        <v>1.239</v>
       </c>
       <c r="K12" t="n">
-        <v>1.667</v>
+        <v>1.435</v>
       </c>
       <c r="L12" t="n">
-        <v>0.889</v>
+        <v>0.594</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>1.346</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>0.534</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.731</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>1.053</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>0.223</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>1.333</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.444</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>0.667</v>
       </c>
       <c r="W12" t="n">
-        <v>1.875</v>
+        <v>1.318</v>
       </c>
       <c r="X12" t="n">
-        <v>0.609</v>
+        <v>0.399</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.781</v>
+        <v>0.631</v>
       </c>
       <c r="Z12" t="n">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>0.262</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>0.512</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.286</v>
+        <v>1.917</v>
       </c>
       <c r="AD12" t="n">
-        <v>3.633</v>
+        <v>2.826</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.906</v>
+        <v>1.681</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.268</v>
+        <v>3.307</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.122</v>
+        <v>0.227</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.35</v>
+        <v>0.476</v>
       </c>
       <c r="AI12" t="n">
         <v>1</v>
@@ -1786,16 +1786,16 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.125</v>
+        <v>1.107</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.109</v>
+        <v>0.096</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.331</v>
+        <v>0.309</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.089</v>
+        <v>1.102</v>
       </c>
     </row>
     <row r="13">
@@ -1805,124 +1805,124 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.125</v>
+        <v>3.323</v>
       </c>
       <c r="C13" t="n">
-        <v>0.859</v>
+        <v>1.444</v>
       </c>
       <c r="D13" t="n">
-        <v>0.927</v>
+        <v>1.202</v>
       </c>
       <c r="E13" t="n">
-        <v>4.875</v>
+        <v>4.613</v>
       </c>
       <c r="F13" t="n">
-        <v>0.109</v>
+        <v>0.431</v>
       </c>
       <c r="G13" t="n">
-        <v>0.331</v>
+        <v>0.656</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>4.645</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.616</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.785</v>
       </c>
       <c r="K13" t="n">
-        <v>2.375</v>
+        <v>2.296</v>
       </c>
       <c r="L13" t="n">
-        <v>0.484</v>
+        <v>0.579</v>
       </c>
       <c r="M13" t="n">
-        <v>0.696</v>
+        <v>0.761</v>
       </c>
       <c r="N13" t="n">
-        <v>3.375</v>
+        <v>3.226</v>
       </c>
       <c r="O13" t="n">
-        <v>0.234</v>
+        <v>0.82</v>
       </c>
       <c r="P13" t="n">
-        <v>0.484</v>
+        <v>0.906</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.167</v>
+        <v>1.174</v>
       </c>
       <c r="R13" t="n">
-        <v>0.139</v>
+        <v>0.144</v>
       </c>
       <c r="S13" t="n">
-        <v>0.373</v>
+        <v>0.379</v>
       </c>
       <c r="T13" t="n">
-        <v>2.25</v>
+        <v>2.524</v>
       </c>
       <c r="U13" t="n">
-        <v>1.188</v>
+        <v>1.011</v>
       </c>
       <c r="V13" t="n">
-        <v>1.09</v>
+        <v>1.006</v>
       </c>
       <c r="W13" t="n">
-        <v>3.75</v>
+        <v>4.143</v>
       </c>
       <c r="X13" t="n">
-        <v>2.688</v>
+        <v>8.337</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.639</v>
+        <v>2.887</v>
       </c>
       <c r="Z13" t="n">
-        <v>2</v>
+        <v>2.483</v>
       </c>
       <c r="AA13" t="n">
-        <v>2</v>
+        <v>3.146</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.414</v>
+        <v>1.774</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.875</v>
+        <v>6.267</v>
       </c>
       <c r="AD13" t="n">
-        <v>3.109</v>
+        <v>2.196</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.763</v>
+        <v>1.482</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.375</v>
+        <v>4.548999999999999</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.484</v>
+        <v>0.631</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.696</v>
+        <v>0.794</v>
       </c>
       <c r="AI13" t="n">
-        <v>1</v>
+        <v>1.323</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>0.412</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>0.642</v>
       </c>
       <c r="AL13" t="n">
-        <v>2</v>
+        <v>1.645</v>
       </c>
       <c r="AM13" t="n">
-        <v>1.75</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.323</v>
+        <v>0.9</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.458</v>
+        <v>1.516</v>
       </c>
     </row>
   </sheetData>

--- a/stats/harvard/disease_type=common-diseases failure-type-ignored=any-error for app=Avey.xlsx
+++ b/stats/harvard/disease_type=common-diseases failure-type-ignored=any-error for app=Avey.xlsx
@@ -766,70 +766,70 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.312</v>
+        <v>0.318</v>
       </c>
       <c r="C4" t="n">
-        <v>0.058</v>
+        <v>0.057</v>
       </c>
       <c r="D4" t="n">
-        <v>0.24</v>
+        <v>0.238</v>
       </c>
       <c r="E4" t="n">
-        <v>0.177</v>
+        <v>0.18</v>
       </c>
       <c r="F4" t="n">
         <v>0.011</v>
       </c>
       <c r="G4" t="n">
-        <v>0.104</v>
+        <v>0.103</v>
       </c>
       <c r="H4" t="n">
-        <v>0.194</v>
+        <v>0.195</v>
       </c>
       <c r="I4" t="n">
         <v>0.011</v>
       </c>
       <c r="J4" t="n">
-        <v>0.106</v>
+        <v>0.105</v>
       </c>
       <c r="K4" t="n">
-        <v>0.392</v>
+        <v>0.396</v>
       </c>
       <c r="L4" t="n">
-        <v>0.103</v>
+        <v>0.1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.321</v>
+        <v>0.317</v>
       </c>
       <c r="N4" t="n">
-        <v>0.274</v>
+        <v>0.276</v>
       </c>
       <c r="O4" t="n">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="P4" t="n">
-        <v>0.148</v>
+        <v>0.146</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.547</v>
       </c>
       <c r="R4" t="n">
-        <v>0.222</v>
+        <v>0.224</v>
       </c>
       <c r="S4" t="n">
-        <v>0.471</v>
+        <v>0.474</v>
       </c>
       <c r="T4" t="n">
-        <v>0.288</v>
+        <v>0.279</v>
       </c>
       <c r="U4" t="n">
-        <v>0.096</v>
+        <v>0.095</v>
       </c>
       <c r="V4" t="n">
-        <v>0.31</v>
+        <v>0.309</v>
       </c>
       <c r="W4" t="n">
-        <v>0.235</v>
+        <v>0.227</v>
       </c>
       <c r="X4" t="n">
         <v>0.049</v>
@@ -838,52 +838,52 @@
         <v>0.222</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.46</v>
+        <v>0.462</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.143</v>
+        <v>0.139</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.378</v>
+        <v>0.372</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.128</v>
+        <v>0.129</v>
       </c>
       <c r="AD4" t="n">
         <v>0.006</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.077</v>
+        <v>0.076</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.063</v>
+        <v>0.742</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.095</v>
+        <v>0.094</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.308</v>
+        <v>0.307</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.661</v>
+        <v>0.672</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.168</v>
+        <v>0.166</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.409</v>
+        <v>0.407</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.668</v>
+        <v>0.678</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.123</v>
+        <v>0.122</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.697</v>
       </c>
     </row>
     <row r="5">
@@ -893,124 +893,124 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.806</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.156</v>
+        <v>0.152</v>
       </c>
       <c r="D5" t="n">
-        <v>0.395</v>
+        <v>0.39</v>
       </c>
       <c r="E5" t="n">
-        <v>0.774</v>
+        <v>0.781</v>
       </c>
       <c r="F5" t="n">
-        <v>0.175</v>
+        <v>0.171</v>
       </c>
       <c r="G5" t="n">
-        <v>0.418</v>
+        <v>0.413</v>
       </c>
       <c r="H5" t="n">
-        <v>0.839</v>
+        <v>0.844</v>
       </c>
       <c r="I5" t="n">
-        <v>0.135</v>
+        <v>0.132</v>
       </c>
       <c r="J5" t="n">
-        <v>0.368</v>
+        <v>0.363</v>
       </c>
       <c r="K5" t="n">
-        <v>0.742</v>
+        <v>0.75</v>
       </c>
       <c r="L5" t="n">
-        <v>0.191</v>
+        <v>0.188</v>
       </c>
       <c r="M5" t="n">
-        <v>0.438</v>
+        <v>0.433</v>
       </c>
       <c r="N5" t="n">
-        <v>0.839</v>
+        <v>0.844</v>
       </c>
       <c r="O5" t="n">
-        <v>0.135</v>
+        <v>0.132</v>
       </c>
       <c r="P5" t="n">
-        <v>0.368</v>
+        <v>0.363</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.613</v>
+        <v>0.594</v>
       </c>
       <c r="R5" t="n">
-        <v>0.237</v>
+        <v>0.241</v>
       </c>
       <c r="S5" t="n">
-        <v>0.487</v>
+        <v>0.491</v>
       </c>
       <c r="T5" t="n">
-        <v>0.581</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="U5" t="n">
-        <v>0.243</v>
+        <v>0.246</v>
       </c>
       <c r="V5" t="n">
-        <v>0.493</v>
+        <v>0.496</v>
       </c>
       <c r="W5" t="n">
-        <v>0.71</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="X5" t="n">
-        <v>0.206</v>
+        <v>0.215</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.454</v>
+        <v>0.464</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.806</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.156</v>
+        <v>0.152</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.395</v>
+        <v>0.39</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.774</v>
+        <v>0.781</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.175</v>
+        <v>0.171</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.418</v>
+        <v>0.413</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.645</v>
+        <v>0.969</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.177</v>
+        <v>0.174</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.774</v>
+        <v>0.781</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.175</v>
+        <v>0.171</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.418</v>
+        <v>0.413</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.903</v>
+        <v>0.906</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.296</v>
+        <v>0.291</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.882</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="6">
@@ -1020,72 +1020,72 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.45</v>
+        <v>0.457</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0.288</v>
+        <v>0.293</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.315</v>
+        <v>0.317</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>0.513</v>
+        <v>0.518</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>0.413</v>
+        <v>0.416</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>0.588</v>
+        <v>0.57</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>0.385</v>
+        <v>0.373</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>0.353</v>
+        <v>0.341</v>
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>0.586</v>
+        <v>0.589</v>
       </c>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>0.22</v>
+        <v>0.221</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>2.316</v>
+        <v>0.84</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="n">
-        <v>0.713</v>
+        <v>0.722</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
-        <v>0.768</v>
+        <v>0.776</v>
       </c>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="n">
-        <v>0.772</v>
+        <v>0.779</v>
       </c>
     </row>
     <row r="7">
@@ -1095,72 +1095,72 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.612</v>
+        <v>0.62</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0.462</v>
+        <v>0.468</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0.504</v>
+        <v>0.507</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>0.63</v>
+        <v>0.636</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>0.594</v>
+        <v>0.598</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>0.603</v>
+        <v>0.584</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>0.483</v>
+        <v>0.467</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>0.506</v>
+        <v>0.489</v>
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>0.701</v>
+        <v>0.705</v>
       </c>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
-        <v>0.385</v>
+        <v>0.388</v>
       </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>2.502</v>
+        <v>0.913</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="n">
-        <v>0.748</v>
+        <v>0.756</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
-        <v>0.844</v>
+        <v>0.849</v>
       </c>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="n">
-        <v>0.834</v>
+        <v>0.839</v>
       </c>
     </row>
     <row r="8">
@@ -1170,124 +1170,124 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.778</v>
+        <v>0.785</v>
       </c>
       <c r="C8" t="n">
-        <v>0.157</v>
+        <v>0.153</v>
       </c>
       <c r="D8" t="n">
-        <v>0.396</v>
+        <v>0.392</v>
       </c>
       <c r="E8" t="n">
-        <v>0.639</v>
+        <v>0.65</v>
       </c>
       <c r="F8" t="n">
-        <v>0.161</v>
+        <v>0.16</v>
       </c>
       <c r="G8" t="n">
-        <v>0.401</v>
+        <v>0.4</v>
       </c>
       <c r="H8" t="n">
-        <v>0.725</v>
+        <v>0.733</v>
       </c>
       <c r="I8" t="n">
-        <v>0.145</v>
+        <v>0.143</v>
       </c>
       <c r="J8" t="n">
-        <v>0.381</v>
+        <v>0.378</v>
       </c>
       <c r="K8" t="n">
-        <v>0.654</v>
+        <v>0.664</v>
       </c>
       <c r="L8" t="n">
-        <v>0.179</v>
+        <v>0.177</v>
       </c>
       <c r="M8" t="n">
-        <v>0.423</v>
+        <v>0.421</v>
       </c>
       <c r="N8" t="n">
-        <v>0.757</v>
+        <v>0.764</v>
       </c>
       <c r="O8" t="n">
-        <v>0.138</v>
+        <v>0.136</v>
       </c>
       <c r="P8" t="n">
-        <v>0.372</v>
+        <v>0.368</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.601</v>
+        <v>0.582</v>
       </c>
       <c r="R8" t="n">
-        <v>0.232</v>
+        <v>0.236</v>
       </c>
       <c r="S8" t="n">
-        <v>0.482</v>
+        <v>0.486</v>
       </c>
       <c r="T8" t="n">
-        <v>0.525</v>
+        <v>0.508</v>
       </c>
       <c r="U8" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.751</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="AH8" t="n">
         <v>0.218</v>
       </c>
-      <c r="V8" t="n">
-        <v>0.467</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.642</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.191</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.437</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.743</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.153</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0.391</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0.653</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0.173</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0.416</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>2.546</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0.221</v>
-      </c>
       <c r="AI8" t="n">
-        <v>0.774</v>
+        <v>0.781</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.175</v>
+        <v>0.171</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.418</v>
+        <v>0.413</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.868</v>
+        <v>0.872</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.092</v>
+        <v>0.09</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.304</v>
+        <v>0.3</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.849</v>
+        <v>0.853</v>
       </c>
     </row>
     <row r="9">
@@ -1297,16 +1297,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.742</v>
+        <v>0.75</v>
       </c>
       <c r="C9" t="n">
-        <v>0.191</v>
+        <v>0.188</v>
       </c>
       <c r="D9" t="n">
-        <v>0.438</v>
+        <v>0.433</v>
       </c>
       <c r="E9" t="n">
-        <v>0.484</v>
+        <v>0.5</v>
       </c>
       <c r="F9" t="n">
         <v>0.25</v>
@@ -1315,106 +1315,106 @@
         <v>0.5</v>
       </c>
       <c r="H9" t="n">
-        <v>0.613</v>
+        <v>0.625</v>
       </c>
       <c r="I9" t="n">
-        <v>0.237</v>
+        <v>0.234</v>
       </c>
       <c r="J9" t="n">
-        <v>0.487</v>
+        <v>0.484</v>
       </c>
       <c r="K9" t="n">
-        <v>0.548</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="L9" t="n">
-        <v>0.248</v>
+        <v>0.246</v>
       </c>
       <c r="M9" t="n">
-        <v>0.498</v>
+        <v>0.496</v>
       </c>
       <c r="N9" t="n">
-        <v>0.645</v>
+        <v>0.656</v>
       </c>
       <c r="O9" t="n">
-        <v>0.229</v>
+        <v>0.226</v>
       </c>
       <c r="P9" t="n">
-        <v>0.478</v>
+        <v>0.475</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.581</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="R9" t="n">
-        <v>0.243</v>
+        <v>0.246</v>
       </c>
       <c r="S9" t="n">
-        <v>0.493</v>
+        <v>0.496</v>
       </c>
       <c r="T9" t="n">
-        <v>0.452</v>
+        <v>0.438</v>
       </c>
       <c r="U9" t="n">
-        <v>0.248</v>
+        <v>0.246</v>
       </c>
       <c r="V9" t="n">
-        <v>0.498</v>
+        <v>0.496</v>
       </c>
       <c r="W9" t="n">
-        <v>0.548</v>
+        <v>0.531</v>
       </c>
       <c r="X9" t="n">
-        <v>0.248</v>
+        <v>0.249</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.498</v>
+        <v>0.499</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.645</v>
+        <v>0.656</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.229</v>
+        <v>0.226</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.478</v>
+        <v>0.475</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.548</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.248</v>
+        <v>0.246</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.498</v>
+        <v>0.496</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.386</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.156</v>
+        <v>0.152</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.395</v>
+        <v>0.39</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.774</v>
+        <v>0.781</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.175</v>
+        <v>0.171</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.418</v>
+        <v>0.413</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.806</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.156</v>
+        <v>0.152</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.395</v>
+        <v>0.39</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.795</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="10">
@@ -1424,124 +1424,124 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.806</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.156</v>
+        <v>0.152</v>
       </c>
       <c r="D10" t="n">
-        <v>0.395</v>
+        <v>0.39</v>
       </c>
       <c r="E10" t="n">
-        <v>0.677</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="G10" t="n">
-        <v>0.467</v>
+        <v>0.464</v>
       </c>
       <c r="H10" t="n">
-        <v>0.742</v>
+        <v>0.75</v>
       </c>
       <c r="I10" t="n">
-        <v>0.191</v>
+        <v>0.188</v>
       </c>
       <c r="J10" t="n">
-        <v>0.438</v>
+        <v>0.433</v>
       </c>
       <c r="K10" t="n">
-        <v>0.742</v>
+        <v>0.75</v>
       </c>
       <c r="L10" t="n">
-        <v>0.191</v>
+        <v>0.188</v>
       </c>
       <c r="M10" t="n">
-        <v>0.438</v>
+        <v>0.433</v>
       </c>
       <c r="N10" t="n">
-        <v>0.806</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="O10" t="n">
-        <v>0.156</v>
+        <v>0.152</v>
       </c>
       <c r="P10" t="n">
-        <v>0.395</v>
+        <v>0.39</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.613</v>
+        <v>0.594</v>
       </c>
       <c r="R10" t="n">
-        <v>0.237</v>
+        <v>0.241</v>
       </c>
       <c r="S10" t="n">
-        <v>0.487</v>
+        <v>0.491</v>
       </c>
       <c r="T10" t="n">
-        <v>0.581</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="U10" t="n">
-        <v>0.243</v>
+        <v>0.246</v>
       </c>
       <c r="V10" t="n">
-        <v>0.493</v>
+        <v>0.496</v>
       </c>
       <c r="W10" t="n">
-        <v>0.71</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="X10" t="n">
-        <v>0.206</v>
+        <v>0.215</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.454</v>
+        <v>0.464</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.806</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.156</v>
+        <v>0.152</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.395</v>
+        <v>0.39</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.645</v>
+        <v>0.656</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.229</v>
+        <v>0.226</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.478</v>
+        <v>0.475</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.645</v>
+        <v>0.969</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.177</v>
+        <v>0.174</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.774</v>
+        <v>0.781</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.175</v>
+        <v>0.171</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.418</v>
+        <v>0.413</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.903</v>
+        <v>0.906</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.296</v>
+        <v>0.291</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.882</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="11">
@@ -1551,124 +1551,124 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.806</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.156</v>
+        <v>0.152</v>
       </c>
       <c r="D11" t="n">
-        <v>0.395</v>
+        <v>0.39</v>
       </c>
       <c r="E11" t="n">
-        <v>0.774</v>
+        <v>0.781</v>
       </c>
       <c r="F11" t="n">
-        <v>0.175</v>
+        <v>0.171</v>
       </c>
       <c r="G11" t="n">
-        <v>0.418</v>
+        <v>0.413</v>
       </c>
       <c r="H11" t="n">
-        <v>0.839</v>
+        <v>0.844</v>
       </c>
       <c r="I11" t="n">
-        <v>0.135</v>
+        <v>0.132</v>
       </c>
       <c r="J11" t="n">
-        <v>0.368</v>
+        <v>0.363</v>
       </c>
       <c r="K11" t="n">
-        <v>0.742</v>
+        <v>0.75</v>
       </c>
       <c r="L11" t="n">
-        <v>0.191</v>
+        <v>0.188</v>
       </c>
       <c r="M11" t="n">
-        <v>0.438</v>
+        <v>0.433</v>
       </c>
       <c r="N11" t="n">
-        <v>0.839</v>
+        <v>0.844</v>
       </c>
       <c r="O11" t="n">
-        <v>0.135</v>
+        <v>0.132</v>
       </c>
       <c r="P11" t="n">
-        <v>0.368</v>
+        <v>0.363</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.613</v>
+        <v>0.594</v>
       </c>
       <c r="R11" t="n">
-        <v>0.237</v>
+        <v>0.241</v>
       </c>
       <c r="S11" t="n">
-        <v>0.487</v>
+        <v>0.491</v>
       </c>
       <c r="T11" t="n">
-        <v>0.581</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="U11" t="n">
-        <v>0.243</v>
+        <v>0.246</v>
       </c>
       <c r="V11" t="n">
-        <v>0.493</v>
+        <v>0.496</v>
       </c>
       <c r="W11" t="n">
-        <v>0.71</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="X11" t="n">
-        <v>0.206</v>
+        <v>0.215</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.454</v>
+        <v>0.464</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.806</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.156</v>
+        <v>0.152</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.395</v>
+        <v>0.39</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.71</v>
+        <v>0.719</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.206</v>
+        <v>0.202</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.454</v>
+        <v>0.45</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.645</v>
+        <v>0.969</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.177</v>
+        <v>0.174</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.774</v>
+        <v>0.781</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.175</v>
+        <v>0.171</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.418</v>
+        <v>0.413</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.903</v>
+        <v>0.906</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.296</v>
+        <v>0.291</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.882</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="12">
@@ -1678,49 +1678,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.12</v>
+        <v>1.115</v>
       </c>
       <c r="C12" t="n">
-        <v>0.186</v>
+        <v>0.179</v>
       </c>
       <c r="D12" t="n">
-        <v>0.431</v>
+        <v>0.423</v>
       </c>
       <c r="E12" t="n">
-        <v>1.708</v>
+        <v>1.68</v>
       </c>
       <c r="F12" t="n">
-        <v>1.123</v>
+        <v>1.098</v>
       </c>
       <c r="G12" t="n">
-        <v>1.06</v>
+        <v>1.048</v>
       </c>
       <c r="H12" t="n">
-        <v>1.654</v>
+        <v>1.63</v>
       </c>
       <c r="I12" t="n">
-        <v>1.534</v>
+        <v>1.492</v>
       </c>
       <c r="J12" t="n">
-        <v>1.239</v>
+        <v>1.222</v>
       </c>
       <c r="K12" t="n">
-        <v>1.435</v>
+        <v>1.417</v>
       </c>
       <c r="L12" t="n">
-        <v>0.594</v>
+        <v>0.576</v>
       </c>
       <c r="M12" t="n">
-        <v>0.77</v>
+        <v>0.759</v>
       </c>
       <c r="N12" t="n">
-        <v>1.346</v>
+        <v>1.333</v>
       </c>
       <c r="O12" t="n">
-        <v>0.534</v>
+        <v>0.519</v>
       </c>
       <c r="P12" t="n">
-        <v>0.731</v>
+        <v>0.72</v>
       </c>
       <c r="Q12" t="n">
         <v>1.053</v>
@@ -1750,31 +1750,31 @@
         <v>0.631</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.24</v>
+        <v>1.231</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.262</v>
+        <v>0.254</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.512</v>
+        <v>0.504</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.917</v>
+        <v>1.88</v>
       </c>
       <c r="AD12" t="n">
-        <v>2.826</v>
+        <v>2.746</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.681</v>
+        <v>1.657</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.307</v>
+        <v>1.194</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.227</v>
+        <v>0.221</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.476</v>
+        <v>0.47</v>
       </c>
       <c r="AI12" t="n">
         <v>1</v>
@@ -1786,16 +1786,16 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.107</v>
+        <v>1.103</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.096</v>
+        <v>0.093</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.309</v>
+        <v>0.305</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.102</v>
+        <v>1.099</v>
       </c>
     </row>
     <row r="13">
@@ -1805,49 +1805,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.323</v>
+        <v>3.281</v>
       </c>
       <c r="C13" t="n">
-        <v>1.444</v>
+        <v>1.452</v>
       </c>
       <c r="D13" t="n">
-        <v>1.202</v>
+        <v>1.205</v>
       </c>
       <c r="E13" t="n">
-        <v>4.613</v>
+        <v>4.594</v>
       </c>
       <c r="F13" t="n">
-        <v>0.431</v>
+        <v>0.429</v>
       </c>
       <c r="G13" t="n">
-        <v>0.656</v>
+        <v>0.655</v>
       </c>
       <c r="H13" t="n">
-        <v>4.645</v>
+        <v>4.625</v>
       </c>
       <c r="I13" t="n">
-        <v>0.616</v>
+        <v>0.609</v>
       </c>
       <c r="J13" t="n">
-        <v>0.785</v>
+        <v>0.781</v>
       </c>
       <c r="K13" t="n">
-        <v>2.296</v>
+        <v>2.286</v>
       </c>
       <c r="L13" t="n">
-        <v>0.579</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="M13" t="n">
-        <v>0.761</v>
+        <v>0.749</v>
       </c>
       <c r="N13" t="n">
-        <v>3.226</v>
+        <v>3.219</v>
       </c>
       <c r="O13" t="n">
-        <v>0.82</v>
+        <v>0.796</v>
       </c>
       <c r="P13" t="n">
-        <v>0.906</v>
+        <v>0.892</v>
       </c>
       <c r="Q13" t="n">
         <v>1.174</v>
@@ -1877,52 +1877,52 @@
         <v>2.887</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.483</v>
+        <v>2.467</v>
       </c>
       <c r="AA13" t="n">
-        <v>3.146</v>
+        <v>3.049</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.774</v>
+        <v>1.746</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.267</v>
+        <v>6.29</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.196</v>
+        <v>2.142</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.482</v>
+        <v>1.463</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.548999999999999</v>
+        <v>1.562</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.631</v>
+        <v>0.621</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.794</v>
+        <v>0.788</v>
       </c>
       <c r="AI13" t="n">
-        <v>1.323</v>
+        <v>1.312</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.412</v>
+        <v>0.402</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.642</v>
+        <v>0.634</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.645</v>
+        <v>1.625</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.797</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.9</v>
+        <v>0.893</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.516</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
